--- a/Documentation/Test Cases/Test Cases Updated 30 July 2018.xlsx
+++ b/Documentation/Test Cases/Test Cases Updated 30 July 2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiaan\Desktop\SMU\Tempest\Documentation\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2596C3CB-54FA-442A-BCA7-B63DBBAB4F4E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F56AF1-6E36-4BF2-A1F7-C0A15EB65757}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6600" tabRatio="845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6600" tabRatio="845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated Testing" sheetId="8" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="288">
   <si>
     <t>S/N</t>
   </si>
@@ -1529,6 +1529,18 @@
   </si>
   <si>
     <t>Filter by product type AND sort by newness</t>
+  </si>
+  <si>
+    <t>Number of bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moderate </t>
+  </si>
+  <si>
+    <t>Iteration 8, before migration</t>
+  </si>
+  <si>
+    <t>Iteration 13, after migration</t>
   </si>
 </sst>
 </file>
@@ -1754,21 +1766,23 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2273,9 +2287,372 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Montserrat" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bug metrics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Montserrat" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Metrics!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of bugs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Metrics!$J$4:$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Iteration 8, before migration</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Iteration 13, after migration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Metrics!$K$4:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0406-43CF-9A66-296A66A95D7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1900590351"/>
+        <c:axId val="1562497167"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1900590351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Montserrat" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1562497167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1562497167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Montserrat" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Number of bugs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Montserrat" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Montserrat" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1900590351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Montserrat" panose="00000500000000000000" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
 </cs:colorStyle>
 </file>
 
@@ -2795,6 +3172,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2828,6 +3708,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139706</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C437411C-0644-418D-96F4-B95A30B10A1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3185,7 +4101,7 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
@@ -6098,15 +7014,15 @@
       <c r="E69" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F69" s="36" t="s">
+      <c r="F69" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="36"/>
-      <c r="J69" s="36"/>
-      <c r="K69" s="36"/>
-      <c r="L69" s="36"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
       <c r="M69" s="5" t="s">
         <v>183</v>
       </c>
@@ -6914,7 +7830,7 @@
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I96" s="38" t="s">
+      <c r="I96" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6922,7 +7838,7 @@
       <c r="D97" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="I97" s="38" t="s">
+      <c r="I97" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6930,7 +7846,7 @@
       <c r="D98" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="I98" s="38" t="s">
+      <c r="I98" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6997,27 +7913,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716DAE55-C88E-4B93-B9D9-E0BB9156427A}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.296875" customWidth="1"/>
     <col min="3" max="3" width="18.8984375" customWidth="1"/>
+    <col min="4" max="7" width="8.796875" style="34"/>
+    <col min="10" max="10" width="29.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>203</v>
       </c>
@@ -7027,129 +7947,224 @@
       <c r="C2" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="34" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34">
+        <v>1</v>
+      </c>
+      <c r="F3" s="34">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>203</v>
+      </c>
+      <c r="K3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" t="s">
+        <v>285</v>
+      </c>
+      <c r="N3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>286</v>
+      </c>
+      <c r="K4">
+        <v>46</v>
+      </c>
+      <c r="L4">
+        <v>27</v>
+      </c>
+      <c r="M4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9" s="34">
+        <v>0</v>
+      </c>
+      <c r="E9" s="34">
+        <v>22</v>
+      </c>
+      <c r="F9" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="C10">
         <v>46</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="34">
         <v>27</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="34">
         <v>19</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="34">
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="34">
         <f>SUM(D10:F10)-C10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="34">
+        <v>0</v>
+      </c>
+      <c r="E11" s="34">
+        <v>0</v>
+      </c>
+      <c r="F11" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="34">
+        <v>0</v>
+      </c>
+      <c r="E12" s="34">
+        <v>0</v>
+      </c>
+      <c r="F12" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0</v>
+      </c>
+      <c r="E13" s="34">
+        <v>0</v>
+      </c>
+      <c r="F13" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" s="34">
+        <v>6</v>
+      </c>
+      <c r="E14" s="34">
+        <v>2</v>
+      </c>
+      <c r="F14" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" s="34">
+        <v>9</v>
+      </c>
+      <c r="E15" s="34">
+        <v>3</v>
+      </c>
+      <c r="F15" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -7233,19 +8248,19 @@
       <c r="A34" t="s">
         <v>203</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="32" t="s">
         <v>211</v>
       </c>
       <c r="C34" t="s">
         <v>212</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="34" t="s">
         <v>213</v>
       </c>
       <c r="H34" t="s">
@@ -7267,14 +8282,14 @@
         <f>B35-G35-H35</f>
         <v>13</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="36">
         <f>C35/B35</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="34">
         <v>1</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="34">
         <f>F35</f>
         <v>1</v>
       </c>
@@ -7298,14 +8313,14 @@
         <f>B36-G36-H36</f>
         <v>14</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="36">
         <f t="shared" ref="D36:D45" si="1">C36/B36</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="34">
         <v>2</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="34">
         <f t="shared" ref="G36:G63" si="2">F36</f>
         <v>2</v>
       </c>
@@ -7329,14 +8344,14 @@
         <f>B37-G37</f>
         <v>16</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="36">
         <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="34">
         <v>2</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="34">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -7360,14 +8375,14 @@
         <f>B38</f>
         <v>21</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="34">
         <v>2</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="34">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -7391,14 +8406,14 @@
         <f>B39-3</f>
         <v>24</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="36">
         <f t="shared" si="1"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="34">
         <v>3</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="34">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -7422,14 +8437,14 @@
         <f>B40</f>
         <v>24</v>
       </c>
-      <c r="D40" s="34">
+      <c r="D40" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="34">
         <v>4</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="34">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -7453,14 +8468,14 @@
         <f>B41</f>
         <v>30</v>
       </c>
-      <c r="D41" s="34">
+      <c r="D41" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="34">
         <v>2</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="34">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -7484,14 +8499,14 @@
         <f>B42-I42</f>
         <v>39</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="36">
         <f t="shared" si="1"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="34">
         <v>6</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="34">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -7515,14 +8530,14 @@
         <f>B43-H43</f>
         <v>39</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="36">
         <f t="shared" si="1"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="34">
         <v>6</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="34">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -7546,14 +8561,14 @@
         <f>B44</f>
         <v>30</v>
       </c>
-      <c r="D44" s="34">
+      <c r="D44" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="34">
         <v>7</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="34">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -7577,14 +8592,14 @@
         <f>B45</f>
         <v>33</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="34">
         <v>1</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -7604,10 +8619,10 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="34">
         <v>8</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="34">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -7627,10 +8642,10 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="34">
         <v>8</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="34">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -7650,10 +8665,10 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="34">
         <v>0</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7673,10 +8688,10 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="34">
         <v>8</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="34">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -7696,10 +8711,10 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="34">
         <v>1</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -7719,10 +8734,10 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="34">
         <v>1</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -7742,10 +8757,10 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="34">
         <v>9</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="34">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -7765,10 +8780,10 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="34">
         <v>10</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="34">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -7788,10 +8803,10 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="34">
         <v>10</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="34">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -7811,10 +8826,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="34">
         <v>0</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7834,10 +8849,10 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="34">
         <v>1</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -7857,10 +8872,10 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="34">
         <v>10</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="34">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -7880,10 +8895,10 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="34">
         <v>10</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="34">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -7903,10 +8918,10 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="34">
         <v>10</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="34">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -7926,10 +8941,10 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="34">
         <v>10</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="34">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -7949,10 +8964,10 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="34">
         <v>10</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="34">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -7972,10 +8987,10 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="34">
         <v>10</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="34">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -7995,10 +9010,10 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="34">
         <v>10</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="34">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -8023,7 +9038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
